--- a/Visualization/results/processed_EMtrace01/all_neurons_transients.xlsx
+++ b/Visualization/results/processed_EMtrace01/all_neurons_transients.xlsx
@@ -637,7 +637,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -809,7 +809,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -895,7 +895,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -1067,7 +1067,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -1153,7 +1153,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -1239,7 +1239,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1669,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2271,7 +2271,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2615,7 +2615,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2787,7 +2787,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -2959,7 +2959,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3131,7 +3131,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3217,7 +3217,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3303,7 +3303,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3733,7 +3733,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3819,7 +3819,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -4163,7 +4163,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -4507,7 +4507,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -4679,7 +4679,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -4765,7 +4765,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -4851,7 +4851,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -4937,7 +4937,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5023,7 +5023,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5281,7 +5281,7 @@
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5367,7 +5367,7 @@
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5453,7 +5453,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5539,7 +5539,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5797,7 +5797,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5883,7 +5883,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -6313,7 +6313,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -6485,7 +6485,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -6571,7 +6571,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -6829,7 +6829,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -6915,7 +6915,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7001,7 +7001,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7087,7 +7087,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7259,7 +7259,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7345,7 +7345,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7431,7 +7431,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7603,7 +7603,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7775,7 +7775,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7861,7 +7861,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -7947,7 +7947,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8033,7 +8033,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8119,7 +8119,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8205,7 +8205,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8291,7 +8291,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8377,7 +8377,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8463,7 +8463,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8549,7 +8549,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8635,7 +8635,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8893,7 +8893,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -9065,7 +9065,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -9151,7 +9151,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -9323,7 +9323,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -9409,7 +9409,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -9495,7 +9495,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -9581,7 +9581,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -9667,7 +9667,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -9839,7 +9839,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -9925,7 +9925,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10011,7 +10011,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10097,7 +10097,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10183,7 +10183,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10441,7 +10441,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10527,7 +10527,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10613,7 +10613,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10699,7 +10699,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10871,7 +10871,7 @@
       </c>
       <c r="X121" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -10957,7 +10957,7 @@
       </c>
       <c r="X122" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11043,7 +11043,7 @@
       </c>
       <c r="X123" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11129,7 @@
       </c>
       <c r="X124" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11215,7 +11215,7 @@
       </c>
       <c r="X125" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="X126" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11387,7 +11387,7 @@
       </c>
       <c r="X127" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="X128" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11559,7 +11559,7 @@
       </c>
       <c r="X129" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11645,7 +11645,7 @@
       </c>
       <c r="X130" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11731,7 +11731,7 @@
       </c>
       <c r="X131" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11817,7 @@
       </c>
       <c r="X132" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11903,7 +11903,7 @@
       </c>
       <c r="X133" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -11989,7 +11989,7 @@
       </c>
       <c r="X134" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -12075,7 +12075,7 @@
       </c>
       <c r="X135" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -12161,7 +12161,7 @@
       </c>
       <c r="X136" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -12247,7 +12247,7 @@
       </c>
       <c r="X137" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="X138" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -12419,7 +12419,7 @@
       </c>
       <c r="X139" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -12505,7 +12505,7 @@
       </c>
       <c r="X140" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -12591,7 +12591,7 @@
       </c>
       <c r="X141" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -12677,7 +12677,7 @@
       </c>
       <c r="X142" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -12763,7 +12763,7 @@
       </c>
       <c r="X143" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -12849,7 +12849,7 @@
       </c>
       <c r="X144" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -12935,7 +12935,7 @@
       </c>
       <c r="X145" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13021,7 +13021,7 @@
       </c>
       <c r="X146" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13107,7 +13107,7 @@
       </c>
       <c r="X147" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13193,7 +13193,7 @@
       </c>
       <c r="X148" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13279,7 +13279,7 @@
       </c>
       <c r="X149" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13365,7 +13365,7 @@
       </c>
       <c r="X150" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13451,7 +13451,7 @@
       </c>
       <c r="X151" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13537,7 +13537,7 @@
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13623,7 +13623,7 @@
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13709,7 +13709,7 @@
       </c>
       <c r="X154" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13795,7 +13795,7 @@
       </c>
       <c r="X155" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13881,7 +13881,7 @@
       </c>
       <c r="X156" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -13967,7 +13967,7 @@
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14053,7 +14053,7 @@
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14139,7 +14139,7 @@
       </c>
       <c r="X159" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14225,7 +14225,7 @@
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14311,7 +14311,7 @@
       </c>
       <c r="X161" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14397,7 +14397,7 @@
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14483,7 +14483,7 @@
       </c>
       <c r="X163" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="X164" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14655,7 +14655,7 @@
       </c>
       <c r="X165" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14741,7 +14741,7 @@
       </c>
       <c r="X166" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14827,7 +14827,7 @@
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14913,7 +14913,7 @@
       </c>
       <c r="X168" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -14999,7 +14999,7 @@
       </c>
       <c r="X169" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -15085,7 +15085,7 @@
       </c>
       <c r="X170" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -15171,7 +15171,7 @@
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -15257,7 +15257,7 @@
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -15343,7 +15343,7 @@
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -15429,7 +15429,7 @@
       </c>
       <c r="X174" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -15515,7 +15515,7 @@
       </c>
       <c r="X175" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -15601,7 +15601,7 @@
       </c>
       <c r="X176" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -15687,7 +15687,7 @@
       </c>
       <c r="X177" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -15773,7 +15773,7 @@
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -15859,7 +15859,7 @@
       </c>
       <c r="X179" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -15945,7 +15945,7 @@
       </c>
       <c r="X180" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16031,7 +16031,7 @@
       </c>
       <c r="X181" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16117,7 +16117,7 @@
       </c>
       <c r="X182" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16203,7 +16203,7 @@
       </c>
       <c r="X183" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16289,7 +16289,7 @@
       </c>
       <c r="X184" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16375,7 +16375,7 @@
       </c>
       <c r="X185" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16461,7 +16461,7 @@
       </c>
       <c r="X186" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16547,7 +16547,7 @@
       </c>
       <c r="X187" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16633,7 +16633,7 @@
       </c>
       <c r="X188" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="X189" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16805,7 +16805,7 @@
       </c>
       <c r="X190" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16891,7 +16891,7 @@
       </c>
       <c r="X191" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -16977,7 +16977,7 @@
       </c>
       <c r="X192" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -17063,7 +17063,7 @@
       </c>
       <c r="X193" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -17149,7 +17149,7 @@
       </c>
       <c r="X194" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -17235,7 +17235,7 @@
       </c>
       <c r="X195" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -17321,7 +17321,7 @@
       </c>
       <c r="X196" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -17407,7 +17407,7 @@
       </c>
       <c r="X197" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -17493,7 +17493,7 @@
       </c>
       <c r="X198" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -17579,7 +17579,7 @@
       </c>
       <c r="X199" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -17665,7 +17665,7 @@
       </c>
       <c r="X200" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -17751,7 +17751,7 @@
       </c>
       <c r="X201" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -17837,7 +17837,7 @@
       </c>
       <c r="X202" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -17923,7 +17923,7 @@
       </c>
       <c r="X203" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="X204" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18095,7 +18095,7 @@
       </c>
       <c r="X205" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18181,7 +18181,7 @@
       </c>
       <c r="X206" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18267,7 +18267,7 @@
       </c>
       <c r="X207" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18353,7 +18353,7 @@
       </c>
       <c r="X208" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18439,7 +18439,7 @@
       </c>
       <c r="X209" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18525,7 +18525,7 @@
       </c>
       <c r="X210" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18611,7 +18611,7 @@
       </c>
       <c r="X211" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18697,7 +18697,7 @@
       </c>
       <c r="X212" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18783,7 +18783,7 @@
       </c>
       <c r="X213" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18869,7 +18869,7 @@
       </c>
       <c r="X214" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -18955,7 +18955,7 @@
       </c>
       <c r="X215" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19041,7 +19041,7 @@
       </c>
       <c r="X216" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19127,7 +19127,7 @@
       </c>
       <c r="X217" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19213,7 +19213,7 @@
       </c>
       <c r="X218" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19299,7 +19299,7 @@
       </c>
       <c r="X219" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19385,7 +19385,7 @@
       </c>
       <c r="X220" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19471,7 +19471,7 @@
       </c>
       <c r="X221" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19557,7 +19557,7 @@
       </c>
       <c r="X222" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19643,7 +19643,7 @@
       </c>
       <c r="X223" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19729,7 +19729,7 @@
       </c>
       <c r="X224" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19815,7 +19815,7 @@
       </c>
       <c r="X225" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19901,7 +19901,7 @@
       </c>
       <c r="X226" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -19987,7 +19987,7 @@
       </c>
       <c r="X227" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -20073,7 +20073,7 @@
       </c>
       <c r="X228" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -20159,7 +20159,7 @@
       </c>
       <c r="X229" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -20245,7 +20245,7 @@
       </c>
       <c r="X230" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -20331,7 +20331,7 @@
       </c>
       <c r="X231" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -20417,7 +20417,7 @@
       </c>
       <c r="X232" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -20503,7 +20503,7 @@
       </c>
       <c r="X233" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -20589,7 +20589,7 @@
       </c>
       <c r="X234" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -20675,7 +20675,7 @@
       </c>
       <c r="X235" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -20761,7 +20761,7 @@
       </c>
       <c r="X236" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -20847,7 +20847,7 @@
       </c>
       <c r="X237" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -20933,7 +20933,7 @@
       </c>
       <c r="X238" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21019,7 +21019,7 @@
       </c>
       <c r="X239" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21105,7 +21105,7 @@
       </c>
       <c r="X240" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21191,7 +21191,7 @@
       </c>
       <c r="X241" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21277,7 +21277,7 @@
       </c>
       <c r="X242" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21363,7 +21363,7 @@
       </c>
       <c r="X243" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21449,7 +21449,7 @@
       </c>
       <c r="X244" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21535,7 +21535,7 @@
       </c>
       <c r="X245" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21621,7 +21621,7 @@
       </c>
       <c r="X246" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21707,7 +21707,7 @@
       </c>
       <c r="X247" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21793,7 +21793,7 @@
       </c>
       <c r="X248" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21879,7 +21879,7 @@
       </c>
       <c r="X249" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -21965,7 +21965,7 @@
       </c>
       <c r="X250" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22051,7 +22051,7 @@
       </c>
       <c r="X251" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22137,7 +22137,7 @@
       </c>
       <c r="X252" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22223,7 +22223,7 @@
       </c>
       <c r="X253" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22309,7 +22309,7 @@
       </c>
       <c r="X254" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22395,7 +22395,7 @@
       </c>
       <c r="X255" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22481,7 +22481,7 @@
       </c>
       <c r="X256" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22567,7 +22567,7 @@
       </c>
       <c r="X257" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22653,7 +22653,7 @@
       </c>
       <c r="X258" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22739,7 +22739,7 @@
       </c>
       <c r="X259" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22825,7 +22825,7 @@
       </c>
       <c r="X260" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22911,7 +22911,7 @@
       </c>
       <c r="X261" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -22997,7 +22997,7 @@
       </c>
       <c r="X262" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -23083,7 +23083,7 @@
       </c>
       <c r="X263" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -23169,7 +23169,7 @@
       </c>
       <c r="X264" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -23255,7 +23255,7 @@
       </c>
       <c r="X265" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -23341,7 +23341,7 @@
       </c>
       <c r="X266" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -23427,7 +23427,7 @@
       </c>
       <c r="X267" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -23513,7 +23513,7 @@
       </c>
       <c r="X268" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -23599,7 +23599,7 @@
       </c>
       <c r="X269" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -23685,7 +23685,7 @@
       </c>
       <c r="X270" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -23771,7 +23771,7 @@
       </c>
       <c r="X271" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -23857,7 +23857,7 @@
       </c>
       <c r="X272" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -23943,7 +23943,7 @@
       </c>
       <c r="X273" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24029,7 +24029,7 @@
       </c>
       <c r="X274" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24115,7 +24115,7 @@
       </c>
       <c r="X275" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24201,7 +24201,7 @@
       </c>
       <c r="X276" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24287,7 +24287,7 @@
       </c>
       <c r="X277" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24373,7 +24373,7 @@
       </c>
       <c r="X278" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24459,7 +24459,7 @@
       </c>
       <c r="X279" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24545,7 +24545,7 @@
       </c>
       <c r="X280" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24631,7 +24631,7 @@
       </c>
       <c r="X281" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24717,7 +24717,7 @@
       </c>
       <c r="X282" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24803,7 +24803,7 @@
       </c>
       <c r="X283" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24889,7 +24889,7 @@
       </c>
       <c r="X284" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -24975,7 +24975,7 @@
       </c>
       <c r="X285" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -25061,7 +25061,7 @@
       </c>
       <c r="X286" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -25147,7 +25147,7 @@
       </c>
       <c r="X287" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -25233,7 +25233,7 @@
       </c>
       <c r="X288" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -25319,7 +25319,7 @@
       </c>
       <c r="X289" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -25405,7 +25405,7 @@
       </c>
       <c r="X290" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -25491,7 +25491,7 @@
       </c>
       <c r="X291" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -25577,7 +25577,7 @@
       </c>
       <c r="X292" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -25663,7 +25663,7 @@
       </c>
       <c r="X293" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -25749,7 +25749,7 @@
       </c>
       <c r="X294" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -25835,7 +25835,7 @@
       </c>
       <c r="X295" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -25921,7 +25921,7 @@
       </c>
       <c r="X296" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26007,7 +26007,7 @@
       </c>
       <c r="X297" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26093,7 +26093,7 @@
       </c>
       <c r="X298" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26179,7 +26179,7 @@
       </c>
       <c r="X299" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26265,7 +26265,7 @@
       </c>
       <c r="X300" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26351,7 +26351,7 @@
       </c>
       <c r="X301" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26437,7 +26437,7 @@
       </c>
       <c r="X302" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26523,7 +26523,7 @@
       </c>
       <c r="X303" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26609,7 +26609,7 @@
       </c>
       <c r="X304" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26695,7 +26695,7 @@
       </c>
       <c r="X305" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26781,7 +26781,7 @@
       </c>
       <c r="X306" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26867,7 +26867,7 @@
       </c>
       <c r="X307" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -26953,7 +26953,7 @@
       </c>
       <c r="X308" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27039,7 +27039,7 @@
       </c>
       <c r="X309" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27125,7 +27125,7 @@
       </c>
       <c r="X310" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27211,7 +27211,7 @@
       </c>
       <c r="X311" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27297,7 +27297,7 @@
       </c>
       <c r="X312" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27383,7 +27383,7 @@
       </c>
       <c r="X313" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27469,7 +27469,7 @@
       </c>
       <c r="X314" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27555,7 +27555,7 @@
       </c>
       <c r="X315" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27641,7 +27641,7 @@
       </c>
       <c r="X316" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27727,7 +27727,7 @@
       </c>
       <c r="X317" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27813,7 +27813,7 @@
       </c>
       <c r="X318" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27899,7 +27899,7 @@
       </c>
       <c r="X319" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -27985,7 +27985,7 @@
       </c>
       <c r="X320" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -28071,7 +28071,7 @@
       </c>
       <c r="X321" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -28157,7 +28157,7 @@
       </c>
       <c r="X322" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -28243,7 +28243,7 @@
       </c>
       <c r="X323" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -28329,7 +28329,7 @@
       </c>
       <c r="X324" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -28415,7 +28415,7 @@
       </c>
       <c r="X325" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -28501,7 +28501,7 @@
       </c>
       <c r="X326" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -28587,7 +28587,7 @@
       </c>
       <c r="X327" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -28673,7 +28673,7 @@
       </c>
       <c r="X328" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -28759,7 +28759,7 @@
       </c>
       <c r="X329" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -28845,7 +28845,7 @@
       </c>
       <c r="X330" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -28931,7 +28931,7 @@
       </c>
       <c r="X331" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29017,7 +29017,7 @@
       </c>
       <c r="X332" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29103,7 +29103,7 @@
       </c>
       <c r="X333" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29189,7 +29189,7 @@
       </c>
       <c r="X334" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29275,7 +29275,7 @@
       </c>
       <c r="X335" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29361,7 +29361,7 @@
       </c>
       <c r="X336" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29447,7 +29447,7 @@
       </c>
       <c r="X337" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29533,7 +29533,7 @@
       </c>
       <c r="X338" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29619,7 +29619,7 @@
       </c>
       <c r="X339" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29705,7 +29705,7 @@
       </c>
       <c r="X340" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29791,7 +29791,7 @@
       </c>
       <c r="X341" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29877,7 +29877,7 @@
       </c>
       <c r="X342" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -29963,7 +29963,7 @@
       </c>
       <c r="X343" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30049,7 +30049,7 @@
       </c>
       <c r="X344" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30135,7 +30135,7 @@
       </c>
       <c r="X345" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30221,7 +30221,7 @@
       </c>
       <c r="X346" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30307,7 +30307,7 @@
       </c>
       <c r="X347" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30393,7 +30393,7 @@
       </c>
       <c r="X348" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30479,7 +30479,7 @@
       </c>
       <c r="X349" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30565,7 +30565,7 @@
       </c>
       <c r="X350" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30651,7 +30651,7 @@
       </c>
       <c r="X351" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30737,7 +30737,7 @@
       </c>
       <c r="X352" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30823,7 +30823,7 @@
       </c>
       <c r="X353" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30909,7 +30909,7 @@
       </c>
       <c r="X354" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -30995,7 +30995,7 @@
       </c>
       <c r="X355" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -31081,7 +31081,7 @@
       </c>
       <c r="X356" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -31167,7 +31167,7 @@
       </c>
       <c r="X357" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -31253,7 +31253,7 @@
       </c>
       <c r="X358" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -31339,7 +31339,7 @@
       </c>
       <c r="X359" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -31425,7 +31425,7 @@
       </c>
       <c r="X360" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -31511,7 +31511,7 @@
       </c>
       <c r="X361" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -31597,7 +31597,7 @@
       </c>
       <c r="X362" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -31683,7 +31683,7 @@
       </c>
       <c r="X363" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -31769,7 +31769,7 @@
       </c>
       <c r="X364" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -31855,7 +31855,7 @@
       </c>
       <c r="X365" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -31941,7 +31941,7 @@
       </c>
       <c r="X366" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32027,7 +32027,7 @@
       </c>
       <c r="X367" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32113,7 +32113,7 @@
       </c>
       <c r="X368" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32199,7 +32199,7 @@
       </c>
       <c r="X369" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32285,7 +32285,7 @@
       </c>
       <c r="X370" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32371,7 +32371,7 @@
       </c>
       <c r="X371" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32457,7 +32457,7 @@
       </c>
       <c r="X372" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32543,7 +32543,7 @@
       </c>
       <c r="X373" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32629,7 +32629,7 @@
       </c>
       <c r="X374" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32715,7 +32715,7 @@
       </c>
       <c r="X375" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32801,7 +32801,7 @@
       </c>
       <c r="X376" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32887,7 +32887,7 @@
       </c>
       <c r="X377" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -32973,7 +32973,7 @@
       </c>
       <c r="X378" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -33059,7 +33059,7 @@
       </c>
       <c r="X379" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -33145,7 +33145,7 @@
       </c>
       <c r="X380" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -33231,7 +33231,7 @@
       </c>
       <c r="X381" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -33317,7 +33317,7 @@
       </c>
       <c r="X382" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -33403,7 +33403,7 @@
       </c>
       <c r="X383" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -33489,7 +33489,7 @@
       </c>
       <c r="X384" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -33575,7 +33575,7 @@
       </c>
       <c r="X385" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -33661,7 +33661,7 @@
       </c>
       <c r="X386" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -33747,7 +33747,7 @@
       </c>
       <c r="X387" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -33833,7 +33833,7 @@
       </c>
       <c r="X388" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -33919,7 +33919,7 @@
       </c>
       <c r="X389" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34005,7 +34005,7 @@
       </c>
       <c r="X390" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34091,7 +34091,7 @@
       </c>
       <c r="X391" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34177,7 +34177,7 @@
       </c>
       <c r="X392" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34263,7 +34263,7 @@
       </c>
       <c r="X393" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34349,7 +34349,7 @@
       </c>
       <c r="X394" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34435,7 +34435,7 @@
       </c>
       <c r="X395" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34521,7 +34521,7 @@
       </c>
       <c r="X396" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34607,7 +34607,7 @@
       </c>
       <c r="X397" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34693,7 +34693,7 @@
       </c>
       <c r="X398" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34779,7 +34779,7 @@
       </c>
       <c r="X399" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34865,7 +34865,7 @@
       </c>
       <c r="X400" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -34951,7 +34951,7 @@
       </c>
       <c r="X401" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35037,7 +35037,7 @@
       </c>
       <c r="X402" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35123,7 +35123,7 @@
       </c>
       <c r="X403" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35209,7 +35209,7 @@
       </c>
       <c r="X404" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35295,7 +35295,7 @@
       </c>
       <c r="X405" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35381,7 +35381,7 @@
       </c>
       <c r="X406" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35467,7 +35467,7 @@
       </c>
       <c r="X407" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35553,7 +35553,7 @@
       </c>
       <c r="X408" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35639,7 +35639,7 @@
       </c>
       <c r="X409" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35725,7 +35725,7 @@
       </c>
       <c r="X410" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35811,7 +35811,7 @@
       </c>
       <c r="X411" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35897,7 +35897,7 @@
       </c>
       <c r="X412" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -35983,7 +35983,7 @@
       </c>
       <c r="X413" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -36069,7 +36069,7 @@
       </c>
       <c r="X414" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -36155,7 +36155,7 @@
       </c>
       <c r="X415" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -36241,7 +36241,7 @@
       </c>
       <c r="X416" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -36327,7 +36327,7 @@
       </c>
       <c r="X417" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -36413,7 +36413,7 @@
       </c>
       <c r="X418" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -36499,7 +36499,7 @@
       </c>
       <c r="X419" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -36585,7 +36585,7 @@
       </c>
       <c r="X420" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -36671,7 +36671,7 @@
       </c>
       <c r="X421" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -36757,7 +36757,7 @@
       </c>
       <c r="X422" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -36843,7 +36843,7 @@
       </c>
       <c r="X423" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -36929,7 +36929,7 @@
       </c>
       <c r="X424" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37015,7 +37015,7 @@
       </c>
       <c r="X425" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37101,7 +37101,7 @@
       </c>
       <c r="X426" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37187,7 +37187,7 @@
       </c>
       <c r="X427" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37273,7 +37273,7 @@
       </c>
       <c r="X428" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37359,7 +37359,7 @@
       </c>
       <c r="X429" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37445,7 +37445,7 @@
       </c>
       <c r="X430" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37531,7 +37531,7 @@
       </c>
       <c r="X431" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37617,7 +37617,7 @@
       </c>
       <c r="X432" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37703,7 +37703,7 @@
       </c>
       <c r="X433" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37789,7 +37789,7 @@
       </c>
       <c r="X434" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37875,7 +37875,7 @@
       </c>
       <c r="X435" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -37961,7 +37961,7 @@
       </c>
       <c r="X436" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38047,7 +38047,7 @@
       </c>
       <c r="X437" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38133,7 +38133,7 @@
       </c>
       <c r="X438" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38219,7 +38219,7 @@
       </c>
       <c r="X439" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38305,7 +38305,7 @@
       </c>
       <c r="X440" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38391,7 +38391,7 @@
       </c>
       <c r="X441" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38477,7 +38477,7 @@
       </c>
       <c r="X442" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38563,7 +38563,7 @@
       </c>
       <c r="X443" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38649,7 +38649,7 @@
       </c>
       <c r="X444" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38735,7 +38735,7 @@
       </c>
       <c r="X445" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38821,7 +38821,7 @@
       </c>
       <c r="X446" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38907,7 +38907,7 @@
       </c>
       <c r="X447" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -38993,7 +38993,7 @@
       </c>
       <c r="X448" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -39079,7 +39079,7 @@
       </c>
       <c r="X449" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -39165,7 +39165,7 @@
       </c>
       <c r="X450" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -39251,7 +39251,7 @@
       </c>
       <c r="X451" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -39337,7 +39337,7 @@
       </c>
       <c r="X452" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -39423,7 +39423,7 @@
       </c>
       <c r="X453" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -39509,7 +39509,7 @@
       </c>
       <c r="X454" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -39595,7 +39595,7 @@
       </c>
       <c r="X455" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -39681,7 +39681,7 @@
       </c>
       <c r="X456" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -39767,7 +39767,7 @@
       </c>
       <c r="X457" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -39853,7 +39853,7 @@
       </c>
       <c r="X458" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -39939,7 +39939,7 @@
       </c>
       <c r="X459" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40025,7 +40025,7 @@
       </c>
       <c r="X460" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40111,7 +40111,7 @@
       </c>
       <c r="X461" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40197,7 +40197,7 @@
       </c>
       <c r="X462" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40283,7 +40283,7 @@
       </c>
       <c r="X463" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40369,7 +40369,7 @@
       </c>
       <c r="X464" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40455,7 +40455,7 @@
       </c>
       <c r="X465" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40541,7 +40541,7 @@
       </c>
       <c r="X466" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40627,7 +40627,7 @@
       </c>
       <c r="X467" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40713,7 +40713,7 @@
       </c>
       <c r="X468" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40799,7 +40799,7 @@
       </c>
       <c r="X469" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40885,7 +40885,7 @@
       </c>
       <c r="X470" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -40971,7 +40971,7 @@
       </c>
       <c r="X471" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -41057,7 +41057,7 @@
       </c>
       <c r="X472" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -41143,7 +41143,7 @@
       </c>
       <c r="X473" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -41229,7 +41229,7 @@
       </c>
       <c r="X474" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -41315,7 +41315,7 @@
       </c>
       <c r="X475" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -41401,7 +41401,7 @@
       </c>
       <c r="X476" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -41487,7 +41487,7 @@
       </c>
       <c r="X477" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -41573,7 +41573,7 @@
       </c>
       <c r="X478" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -41659,7 +41659,7 @@
       </c>
       <c r="X479" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -41745,7 +41745,7 @@
       </c>
       <c r="X480" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -41831,7 +41831,7 @@
       </c>
       <c r="X481" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -41917,7 +41917,7 @@
       </c>
       <c r="X482" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42003,7 +42003,7 @@
       </c>
       <c r="X483" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42089,7 +42089,7 @@
       </c>
       <c r="X484" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42175,7 +42175,7 @@
       </c>
       <c r="X485" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42261,7 +42261,7 @@
       </c>
       <c r="X486" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42347,7 +42347,7 @@
       </c>
       <c r="X487" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42433,7 +42433,7 @@
       </c>
       <c r="X488" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42519,7 +42519,7 @@
       </c>
       <c r="X489" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42605,7 +42605,7 @@
       </c>
       <c r="X490" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42691,7 +42691,7 @@
       </c>
       <c r="X491" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42777,7 +42777,7 @@
       </c>
       <c r="X492" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42863,7 +42863,7 @@
       </c>
       <c r="X493" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -42949,7 +42949,7 @@
       </c>
       <c r="X494" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43035,7 +43035,7 @@
       </c>
       <c r="X495" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43121,7 +43121,7 @@
       </c>
       <c r="X496" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43207,7 +43207,7 @@
       </c>
       <c r="X497" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43293,7 +43293,7 @@
       </c>
       <c r="X498" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43379,7 +43379,7 @@
       </c>
       <c r="X499" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43465,7 +43465,7 @@
       </c>
       <c r="X500" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43551,7 +43551,7 @@
       </c>
       <c r="X501" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43637,7 +43637,7 @@
       </c>
       <c r="X502" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43723,7 +43723,7 @@
       </c>
       <c r="X503" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43809,7 +43809,7 @@
       </c>
       <c r="X504" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43895,7 +43895,7 @@
       </c>
       <c r="X505" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -43981,7 +43981,7 @@
       </c>
       <c r="X506" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -44067,7 +44067,7 @@
       </c>
       <c r="X507" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -44153,7 +44153,7 @@
       </c>
       <c r="X508" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -44239,7 +44239,7 @@
       </c>
       <c r="X509" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -44325,7 +44325,7 @@
       </c>
       <c r="X510" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -44411,7 +44411,7 @@
       </c>
       <c r="X511" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -44497,7 +44497,7 @@
       </c>
       <c r="X512" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -44583,7 +44583,7 @@
       </c>
       <c r="X513" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -44669,7 +44669,7 @@
       </c>
       <c r="X514" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -44755,7 +44755,7 @@
       </c>
       <c r="X515" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -44841,7 +44841,7 @@
       </c>
       <c r="X516" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -44927,7 +44927,7 @@
       </c>
       <c r="X517" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45013,7 +45013,7 @@
       </c>
       <c r="X518" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45099,7 +45099,7 @@
       </c>
       <c r="X519" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45185,7 +45185,7 @@
       </c>
       <c r="X520" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45271,7 +45271,7 @@
       </c>
       <c r="X521" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45357,7 +45357,7 @@
       </c>
       <c r="X522" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45443,7 +45443,7 @@
       </c>
       <c r="X523" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45529,7 +45529,7 @@
       </c>
       <c r="X524" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45615,7 +45615,7 @@
       </c>
       <c r="X525" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45701,7 +45701,7 @@
       </c>
       <c r="X526" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45787,7 +45787,7 @@
       </c>
       <c r="X527" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45873,7 +45873,7 @@
       </c>
       <c r="X528" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -45959,7 +45959,7 @@
       </c>
       <c r="X529" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46045,7 +46045,7 @@
       </c>
       <c r="X530" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46131,7 +46131,7 @@
       </c>
       <c r="X531" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46217,7 +46217,7 @@
       </c>
       <c r="X532" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46303,7 +46303,7 @@
       </c>
       <c r="X533" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46389,7 +46389,7 @@
       </c>
       <c r="X534" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46475,7 +46475,7 @@
       </c>
       <c r="X535" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46561,7 +46561,7 @@
       </c>
       <c r="X536" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46647,7 +46647,7 @@
       </c>
       <c r="X537" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46733,7 +46733,7 @@
       </c>
       <c r="X538" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46819,7 +46819,7 @@
       </c>
       <c r="X539" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46905,7 +46905,7 @@
       </c>
       <c r="X540" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -46991,7 +46991,7 @@
       </c>
       <c r="X541" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -47077,7 +47077,7 @@
       </c>
       <c r="X542" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -47163,7 +47163,7 @@
       </c>
       <c r="X543" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -47249,7 +47249,7 @@
       </c>
       <c r="X544" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -47335,7 +47335,7 @@
       </c>
       <c r="X545" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -47421,7 +47421,7 @@
       </c>
       <c r="X546" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -47507,7 +47507,7 @@
       </c>
       <c r="X547" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -47593,7 +47593,7 @@
       </c>
       <c r="X548" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -47679,7 +47679,7 @@
       </c>
       <c r="X549" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -47765,7 +47765,7 @@
       </c>
       <c r="X550" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -47851,7 +47851,7 @@
       </c>
       <c r="X551" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -47937,7 +47937,7 @@
       </c>
       <c r="X552" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -48023,7 +48023,7 @@
       </c>
       <c r="X553" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -48109,7 +48109,7 @@
       </c>
       <c r="X554" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -48195,7 +48195,7 @@
       </c>
       <c r="X555" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -48281,7 +48281,7 @@
       </c>
       <c r="X556" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -48367,7 +48367,7 @@
       </c>
       <c r="X557" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -48453,7 +48453,7 @@
       </c>
       <c r="X558" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -48539,7 +48539,7 @@
       </c>
       <c r="X559" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -48625,7 +48625,7 @@
       </c>
       <c r="X560" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -48711,7 +48711,7 @@
       </c>
       <c r="X561" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -48797,7 +48797,7 @@
       </c>
       <c r="X562" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
@@ -48883,7 +48883,7 @@
       </c>
       <c r="X563" t="inlineStr">
         <is>
-          <t>D:\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
+          <t>C:\Users\86188\Desktop\xpt\GitHub_local\Brain_Neuroimage_Processing\Visualization\datasets\processed_EMtrace01.xlsx</t>
         </is>
       </c>
     </row>
